--- a/src/test/resources/TestData/Data.xlsx
+++ b/src/test/resources/TestData/Data.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Clients\Philips\Workspace\APITestProject_Srivid\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63502C21-5968-4A06-A9E1-A5A448190F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddPet" sheetId="1" r:id="rId1"/>
+    <sheet name="FindPet" sheetId="2" r:id="rId2"/>
+    <sheet name="UpdatePet" sheetId="3" r:id="rId3"/>
+    <sheet name="ImageUpload" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +27,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+  <si>
+    <t>PET ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>PET NAME</t>
+  </si>
+  <si>
+    <t>100112</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>EXPECTED PET NAME</t>
+  </si>
+  <si>
+    <t>5239423</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>PET_ID</t>
+  </si>
+  <si>
+    <t>IMAGE_TITLE</t>
+  </si>
+  <si>
+    <t>PET_NAME</t>
+  </si>
+  <si>
+    <t>100106</t>
+  </si>
+  <si>
+    <t>Drop_Target</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +90,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +119,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +423,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{6F23E4A9-5D4E-41E8-A820-29BBA8536B46}">
+      <formula1>"available,pending,sold"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A6D6A9-F0AF-4BF7-B69C-5F2C3E8A6713}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{FC362EEA-D760-4A85-9826-502127E726CB}">
+      <formula1>"sold, pending, available"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F3E6C5-1DB8-4DD3-AC6A-0A63018B4171}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{B7A6D31E-BA4B-4924-8F7E-F75C88BBFD97}">
+      <formula1>"available,pending,sold"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6983B001-98A5-45F8-AF71-D6FB7F1305E8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Data.xlsx
+++ b/src/test/resources/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Clients\Philips\Workspace\APITestProject_Srivid\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63502C21-5968-4A06-A9E1-A5A448190F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3E0FE3-45A7-4467-BC26-DF89B615A545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>PET ID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>PET NAME</t>
   </si>
   <si>
-    <t>100112</t>
-  </si>
-  <si>
     <t>Cat</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>EXPECTED PET NAME</t>
   </si>
   <si>
-    <t>5239423</t>
-  </si>
-  <si>
     <t>sold</t>
   </si>
   <si>
@@ -66,16 +60,70 @@
     <t>PET_NAME</t>
   </si>
   <si>
-    <t>100106</t>
-  </si>
-  <si>
-    <t>Drop_Target</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <t>100201</t>
+  </si>
+  <si>
+    <t>100202</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>100204</t>
+  </si>
+  <si>
+    <t>100205</t>
+  </si>
+  <si>
+    <t>100206</t>
+  </si>
+  <si>
+    <t>Pcat</t>
+  </si>
+  <si>
+    <t>Lcat</t>
+  </si>
+  <si>
+    <t>LabDog</t>
+  </si>
+  <si>
+    <t>AlDog</t>
+  </si>
+  <si>
+    <t>Parroot</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>PcatCh</t>
+  </si>
+  <si>
+    <t>LcatCh</t>
+  </si>
+  <si>
+    <t>LabDogCh</t>
+  </si>
+  <si>
+    <t>AlDogCh</t>
+  </si>
+  <si>
+    <t>ParrootCh</t>
+  </si>
+  <si>
+    <t>CowCh</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Parrot</t>
   </si>
 </sst>
 </file>
@@ -111,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,16 +182,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,31 +510,80 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -490,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A6D6A9-F0AF-4BF7-B69C-5F2C3E8A6713}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -512,24 +621,35 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{FC362EEA-D760-4A85-9826-502127E726CB}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576" xr:uid="{FC362EEA-D760-4A85-9826-502127E726CB}">
       <formula1>"sold, pending, available"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{2B29079B-5F53-44F4-A7EF-535273441346}">
+      <formula1>"available,pending,sold"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -539,10 +659,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F3E6C5-1DB8-4DD3-AC6A-0A63018B4171}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +672,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -563,24 +683,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -596,10 +771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6983B001-98A5-45F8-AF71-D6FB7F1305E8}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,10 +786,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +805,23 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
